--- a/private/spreadsheet-template.xlsx
+++ b/private/spreadsheet-template.xlsx
@@ -1,69 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7590" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Default" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Grid" state="visible" r:id="rId4"/>
+    <sheet name="Default" sheetId="1" r:id="rId1"/>
+    <sheet name="Grid" sheetId="2" r:id="rId2"/>
+    <sheet name="Common Formulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t> </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Name of Transform</t>
+  </si>
+  <si>
+    <t>Example Data</t>
+  </si>
+  <si>
+    <t>Formula Cell</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Letter to Number</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Number to Letter</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>Hexidemcimal to Ascii Letter</t>
+  </si>
+  <si>
+    <t>Number to ASCII Letter</t>
+  </si>
+  <si>
+    <t>Caesar shift</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Case insensitive</t>
+  </si>
+  <si>
+    <t>Resistor Color to Number</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>10010110</t>
+  </si>
+  <si>
+    <t>01101011</t>
+  </si>
+  <si>
+    <t>For all binary values: to retain leading zeros, set the field type to text (Format-&gt;Number-&gt;Plain Text)</t>
+  </si>
+  <si>
+    <t>Binary flip of logical high</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a string</t>
+  </si>
+  <si>
+    <t>requires installing an App Script in this doc. Go to Insert-&gt;Script… and search for "string.reverse". Click install, and this should work correctly.</t>
+  </si>
+  <si>
+    <t>The formulas in the Formula Cell column perform the named data transform on the cell directly to their left. To use, just copy/paste the contents as you need them.</t>
+  </si>
+  <si>
+    <t>Case insenitive, will complain if you choose a non-resistor color code</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Reverse alphabet</t>
+  </si>
+  <si>
+    <t>case insensitive</t>
+  </si>
+  <si>
+    <t>Number to Letter, Mod 10</t>
+  </si>
+  <si>
+    <t>Number to Letter, Mod 7</t>
+  </si>
+  <si>
+    <t>Number to Letter, Mod 26</t>
+  </si>
+  <si>
+    <t>Number to Letter, Mod 100</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Hexidemcimal to Decimal</t>
+  </si>
+  <si>
+    <t>Octal to Decimal</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Binary to decimal</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Numbers and letters</t>
+  </si>
+  <si>
+    <t>Hexidecimal to Letter</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Octal to ASCII Letter</t>
+  </si>
+  <si>
+    <t>Octal to Letter</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Just Numbers</t>
+  </si>
+  <si>
+    <t>Ciphers</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Consider chaining with binary to decimal</t>
+  </si>
+  <si>
+    <t>Take character at Position</t>
+  </si>
+  <si>
+    <t>Puzzle Text</t>
+  </si>
+  <si>
+    <t>Case insensitive. If you have a single shift value for multiple columns, change "C18" to "$C$18" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
+  </si>
+  <si>
+    <t>Case insensitive. If you have a single shift value for multiple columns, change "C19" to "$C$19" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
+  </si>
+  <si>
+    <t>Remove Punctuation</t>
+  </si>
+  <si>
+    <t>…..Puzzle! Text?</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,19 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,134 +248,429 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AR100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
-      <c s="5" r="AR2"/>
-    </row>
-    <row r="3">
-      <c s="5" r="AR3"/>
-    </row>
-    <row r="4">
-      <c s="5" r="AR4"/>
-    </row>
-    <row r="5">
-      <c s="5" r="AR5"/>
-    </row>
-    <row r="6">
-      <c s="5" r="AR6"/>
-    </row>
-    <row r="7">
-      <c s="5" r="AR7"/>
-    </row>
-    <row r="8">
-      <c s="5" r="AR8"/>
-    </row>
-    <row r="9">
-      <c s="5" r="AR9"/>
-    </row>
-    <row r="10">
-      <c s="5" r="AR10"/>
-    </row>
-    <row r="11">
-      <c s="5" r="AR11"/>
-    </row>
-    <row r="14">
-      <c s="5" r="L14"/>
-      <c s="5" r="M14"/>
-    </row>
-    <row r="15">
-      <c s="5" r="L15"/>
-      <c s="5" r="M15"/>
-    </row>
-    <row r="16">
-      <c s="5" r="L16"/>
-      <c s="5" r="M16"/>
-    </row>
-    <row r="17">
-      <c s="5" r="L17"/>
-      <c s="5" r="M17"/>
-    </row>
-    <row r="18">
-      <c s="5" r="L18"/>
-      <c s="5" r="M18"/>
-    </row>
-    <row r="19">
-      <c s="5" r="L19"/>
-      <c s="5" r="M19"/>
-    </row>
-    <row r="100">
-      <c t="s" r="A100">
+    <row r="2" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR3" s="1"/>
+    </row>
+    <row r="4" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR5" s="1"/>
+    </row>
+    <row r="6" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR6" s="1"/>
+    </row>
+    <row r="7" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR7" s="1"/>
+    </row>
+    <row r="8" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR9" s="1"/>
+    </row>
+    <row r="10" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR11" s="1"/>
+    </row>
+    <row r="14" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="12:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="12:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="12:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="12:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane topLeftCell="B2" ySplit="1.0" xSplit="1.0" activePane="bottomRight" state="frozen"/>
-      <selection sqref="B1" activeCell="B1" pane="topRight"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
-      <selection sqref="B2" activeCell="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="5.43"/>
-    <col min="2" customWidth="1" max="41" width="1.71"/>
-    <col min="42" customWidth="1" max="71" width="2.0"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="41" width="1.7109375" customWidth="1"/>
+    <col min="42" max="71" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -235,889 +678,1262 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <f>C1+1</f>
+        <f t="shared" ref="D1:AI1" si="0">C1+1</f>
         <v>3</v>
       </c>
       <c r="E1">
-        <f>D1+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F1">
-        <f>E1+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G1">
-        <f>F1+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H1">
-        <f>G1+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I1">
-        <f>H1+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J1">
-        <f>I1+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K1">
-        <f>J1+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L1">
-        <f>K1+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M1">
-        <f>L1+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N1">
-        <f>M1+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O1">
-        <f>N1+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P1">
-        <f>O1+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q1">
-        <f>P1+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R1">
-        <f>Q1+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="S1">
-        <f>R1+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T1">
-        <f>S1+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="U1">
-        <f>T1+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="V1">
-        <f>U1+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="W1">
-        <f>V1+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="X1">
-        <f>W1+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Y1">
-        <f>X1+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Z1">
-        <f>Y1+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AA1">
-        <f>Z1+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AB1">
-        <f>AA1+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AC1">
-        <f>AB1+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AD1">
-        <f>AC1+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AE1">
-        <f>AD1+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AF1">
-        <f>AE1+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AG1">
-        <f>AF1+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AH1">
-        <f>AG1+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AI1">
-        <f>AH1+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AJ1">
-        <f>AI1+1</f>
+        <f t="shared" ref="AJ1:BS1" si="1">AI1+1</f>
         <v>35</v>
       </c>
       <c r="AK1">
-        <f>AJ1+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AL1">
-        <f>AK1+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="AM1">
-        <f>AL1+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="AN1">
-        <f>AM1+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AO1">
-        <f>AN1+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AP1">
-        <f>AO1+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="AQ1">
-        <f>AP1+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="AR1">
-        <f>AQ1+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="AS1">
-        <f>AR1+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="AT1">
-        <f>AS1+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AU1">
-        <f>AT1+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="AV1">
-        <f>AU1+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="AW1">
-        <f>AV1+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="AX1">
-        <f>AW1+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="AY1">
-        <f>AX1+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AZ1">
-        <f>AY1+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="BA1">
-        <f>AZ1+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="BB1">
-        <f>BA1+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="BC1">
-        <f>BB1+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="BD1">
-        <f>BC1+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="BE1">
-        <f>BD1+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="BF1">
-        <f>BE1+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="BG1">
-        <f>BF1+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="BH1">
-        <f>BG1+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="BI1">
-        <f>BH1+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="BJ1">
-        <f>BI1+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="BK1">
-        <f>BJ1+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="BL1">
-        <f>BK1+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="BM1">
-        <f>BL1+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="BN1">
-        <f>BM1+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="BO1">
-        <f>BN1+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="BP1">
-        <f>BO1+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="BQ1">
-        <f>BP1+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="BR1">
-        <f>BQ1+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="BS1">
-        <f>BR1+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c s="5" r="AR2"/>
-    </row>
-    <row r="3">
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="2">A2+1</f>
         <v>2</v>
       </c>
-      <c s="5" r="AR3"/>
-    </row>
-    <row r="4">
+      <c r="AR3" s="1"/>
+    </row>
+    <row r="4" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c s="5" r="AR4"/>
-    </row>
-    <row r="5">
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c s="5" r="AR5"/>
-    </row>
-    <row r="6">
+      <c r="AR5" s="1"/>
+    </row>
+    <row r="6" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c s="5" r="AR6"/>
-    </row>
-    <row r="7">
+      <c r="AR6" s="1"/>
+    </row>
+    <row r="7" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c s="5" r="AR7"/>
-    </row>
-    <row r="8">
+      <c r="AR7" s="1"/>
+    </row>
+    <row r="8" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c s="5" r="AR8"/>
-    </row>
-    <row r="9">
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c s="5" r="AR9"/>
-    </row>
-    <row r="10">
+      <c r="AR9" s="1"/>
+    </row>
+    <row r="10" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c s="5" r="AR10"/>
-    </row>
-    <row r="11">
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c s="5" r="K16"/>
-      <c s="5" r="L16"/>
-      <c s="5" r="M16"/>
-      <c s="5" r="N16"/>
-      <c s="5" r="O16"/>
-    </row>
-    <row r="17">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c s="5" r="K17"/>
-      <c s="5" r="L17"/>
-      <c s="5" r="M17"/>
-      <c s="5" r="N17"/>
-      <c s="5" r="O17"/>
-    </row>
-    <row r="18">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A66" si="3">A34+1</f>
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>A37+1</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>A38+1</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>A39+1</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>A48+1</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>A49+1</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>A50+1</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>A51+1</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>A52+1</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f>A53+1</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f>A54+1</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f>A55+1</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f>A56+1</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f>A57+1</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f>A58+1</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f>A60+1</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>A61+1</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f>A62+1</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f>A63+1</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>A64+1</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f>A65+1</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A99" si="4">A66+1</f>
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>A67+1</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>A68+1</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>A69+1</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>A70+1</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>A71+1</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f>A72+1</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f>A73+1</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f>A74+1</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f>A75+1</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f>A76+1</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f>A77+1</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f>A78+1</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f>A79+1</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f>A80+1</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f>A81+1</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f>A82+1</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f>A83+1</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f>A84+1</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f>A85+1</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f>A86+1</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f>A87+1</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f>A88+1</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f>A89+1</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f>A90+1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f>A91+1</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f>A92+1</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f>A93+1</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f>A94+1</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f>A95+1</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f>A96+1</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f>A97+1</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f>A98+1</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10">
+        <f>CODE(UPPER(D3))-64</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>CHAR(D4+64)</f>
+        <v>G</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>CHAR(MOD(D5,7)+64)</f>
+        <v>D</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>CHAR(MOD(D6,10)+64)</f>
+        <v>I</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>CHAR(MOD(D7,26)+64)</f>
+        <v>E</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>CHAR(MOD(D8,100)+64)</f>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f>CHAR(D9)</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>CHAR(HEX2DEC(D10))</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>CHAR(HEX2DEC(D11)+64)</f>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>CHAR(OCT2DEC(D12))</f>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>CHAR(OCT2DEC(D13)+64)</f>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12">
+        <f>HEX2DEC(D14)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12">
+        <f>OCT2DEC(D15)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12">
+        <f>BIN2DEC(D16)</f>
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D17,0,2),1,0),2,1)</f>
+        <v>01101001</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>CHAR(MOD(CODE(UPPER(D18))-65+C18,26)+65 )</f>
+        <v>Y</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="12" t="str">
+        <f>UPPER(MID(D19,C19,1))</f>
+        <v>Z</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="12">
+        <f>IF(UPPER(D20)="BLACK",0,IF(UPPER(D20)="BROWN",1,IF(UPPER(D20)="TAN",1,IF(UPPER(D20)="RED",2,IF(UPPER(D20)="ORANGE",3,IF(UPPER(D20)="YELLOW",4,IF(UPPER(D20)="GREEN",5,IF(UPPER(D20)="BLUE",6,IF(UPPER(D20)="VIOLET",7,IF(UPPER(D20)="PURPLE",7,IF(UPPER(D20)="GREY",8,IF(UPPER(D20)="GRAY",8,IF(UPPER(D20)="WHITE",9,"Invalid Color")))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11" t="e">
+        <f ca="1">reverse(D21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f>CHAR(ABS((CODE(UPPER(D22))-64)-26)+65)</f>
+        <v>Y</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D23,"'",""),"…","")," ",""),".",""),"!",""),"?","")</f>
+        <v>PuzzleText</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/private/spreadsheet-template.xlsx
+++ b/private/spreadsheet-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\codex-blackboard\codex-blackboard\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t/>
   </si>
@@ -92,9 +92,6 @@
     <t>Reverse a string</t>
   </si>
   <si>
-    <t>requires installing an App Script in this doc. Go to Insert-&gt;Script… and search for "string.reverse". Click install, and this should work correctly.</t>
-  </si>
-  <si>
     <t>The formulas in the Formula Cell column perform the named data transform on the cell directly to their left. To use, just copy/paste the contents as you need them.</t>
   </si>
   <si>
@@ -170,21 +167,12 @@
     <t>Strings</t>
   </si>
   <si>
-    <t>Consider chaining with binary to decimal</t>
-  </si>
-  <si>
     <t>Take character at Position</t>
   </si>
   <si>
     <t>Puzzle Text</t>
   </si>
   <si>
-    <t>Case insensitive. If you have a single shift value for multiple columns, change "C18" to "$C$18" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
-  </si>
-  <si>
-    <t>Case insensitive. If you have a single shift value for multiple columns, change "C19" to "$C$19" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
-  </si>
-  <si>
     <t>Remove Punctuation</t>
   </si>
   <si>
@@ -192,6 +180,50 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Deimal to Binary</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>ASCII letter to Number</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Take First Character</t>
+  </si>
+  <si>
+    <t>Decimal to Hexidecimal</t>
+  </si>
+  <si>
+    <t>Decimal to Octal</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Consider chaining with binary/decimal conversion</t>
+  </si>
+  <si>
+    <t>Case insensitive. If you have a single shift value for multiple columns, change "C22" to "$C$22" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
+  </si>
+  <si>
+    <t>Case insensitive. If you have a single shift value for multiple columns, change "C23" to "$C$23" (or wherever your index is) to have it stay static during copy/paste, or change it to a number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case insensitive. </t>
+  </si>
+  <si>
+    <t>function reverse(s){
+    return s.split("""").reverse().join("""");
+}</t>
+  </si>
+  <si>
+    <t>requires installing an App Script in this doc. Go to Insert-&gt;Script… and search for "string.reverse". Click install, and this should work correctly. Not guaranteed to work on non-English strings.</t>
   </si>
 </sst>
 </file>
@@ -250,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -298,6 +330,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,17 +1603,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="85.7109375" customWidth="1"/>
@@ -1586,22 +1621,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -1615,7 +1650,7 @@
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1648,11 +1683,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="11" t="str">
         <f>CHAR(MOD(D5,7)+64)</f>
@@ -1662,11 +1697,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11" t="str">
         <f>CHAR(MOD(D6,10)+64)</f>
@@ -1676,11 +1711,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>CHAR(MOD(D7,26)+64)</f>
@@ -1690,11 +1725,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="11" t="str">
         <f>CHAR(MOD(D8,100)+64)</f>
@@ -1702,232 +1737,301 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11">
+        <f>CODE(D9)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>CHAR(D9)</f>
-        <v>M</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="str">
+        <f>CHAR(D10)</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>CHAR(HEX2DEC(D10))</f>
+      <c r="E11" s="11" t="str">
+        <f>CHAR(HEX2DEC(D11))</f>
         <v>M</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11" t="str">
-        <f>CHAR(HEX2DEC(D11)+64)</f>
-        <v>Z</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="11" t="str">
-        <f>CHAR(OCT2DEC(D12))</f>
-        <v>R</v>
+        <f>CHAR(HEX2DEC(D12)+64)</f>
+        <v>Z</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>CHAR(OCT2DEC(D13))</f>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>CHAR(OCT2DEC(D14)+64)</f>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="str">
-        <f>CHAR(OCT2DEC(D13)+64)</f>
-        <v>Q</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12">
-        <f>HEX2DEC(D14)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12">
-        <f>OCT2DEC(D15)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>DEC2HEX(D15)</f>
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16" s="12">
-        <f>BIN2DEC(D16)</f>
-        <v>107</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
+        <f>HEX2DEC(D16)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D17,0,2),1,0),2,1)</f>
-        <v>01101001</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <f>DEC2OCT(D17)</f>
         <v>47</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>-2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="10" t="str">
-        <f>CHAR(MOD(CODE(UPPER(D18))-65+C18,26)+65 )</f>
-        <v>Y</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E18" s="12">
+        <f>OCT2DEC(D18)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f>UPPER(MID(D19,C19,1))</f>
-        <v>Z</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
+        <f>DEC2BIN(D19)</f>
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="12">
-        <f>IF(UPPER(D20)="BLACK",0,IF(UPPER(D20)="BROWN",1,IF(UPPER(D20)="TAN",1,IF(UPPER(D20)="RED",2,IF(UPPER(D20)="ORANGE",3,IF(UPPER(D20)="YELLOW",4,IF(UPPER(D20)="GREEN",5,IF(UPPER(D20)="BLUE",6,IF(UPPER(D20)="VIOLET",7,IF(UPPER(D20)="PURPLE",7,IF(UPPER(D20)="GREY",8,IF(UPPER(D20)="GRAY",8,IF(UPPER(D20)="WHITE",9,"Invalid Color")))))))))))))</f>
-        <v>1</v>
+        <f>BIN2DEC(D20)</f>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="11" t="e">
-        <f ca="1">reverse(D21)</f>
-        <v>#NAME?</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D21,0,2),1,0),2,1)</f>
+        <v>01101001</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>-2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="str">
-        <f>CHAR(ABS((CODE(UPPER(D22))-64)-26)+65)</f>
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f>CHAR(MOD(CODE(UPPER(D22))-65+C22,26)+65 )</f>
         <v>Y</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D23,"'",""),"…","")," ",""),".",""),"!",""),"?","")</f>
+        <v>49</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <f>UPPER(MID(D23,C23,1))</f>
+        <v>Z</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="12" t="str">
+        <f>UPPER(LEFT(D24,1))</f>
+        <v>P</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="12">
+        <f>IF(UPPER(D25)="BLACK",0,IF(UPPER(D25)="BROWN",1,IF(UPPER(D25)="TAN",1,IF(UPPER(D25)="RED",2,IF(UPPER(D25)="ORANGE",3,IF(UPPER(D25)="YELLOW",4,IF(UPPER(D25)="GREEN",5,IF(UPPER(D25)="BLUE",6,IF(UPPER(D25)="VIOLET",7,IF(UPPER(D25)="PURPLE",7,IF(UPPER(D25)="GREY",8,IF(UPPER(D25)="GRAY",8,IF(UPPER(D25)="WHITE",9,"Invalid Color")))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f>CHAR(ABS((CODE(UPPER(D26))-64)-26)+65)</f>
+        <v>Y</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="e">
+        <f ca="1">reverse(D27)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D28,"'",""),"…","")," ",""),".",""),"!",""),"?","")</f>
         <v>PuzzleText</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="15"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
